--- a/src/main/resources/sample/khs.xlsx
+++ b/src/main/resources/sample/khs.xlsx
@@ -11,8 +11,8 @@
     <sheet name="KHS" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">KHS!$C$1:$H$35</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">KHS!$A$1:$H$35</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">KHS!$C$1:$H$35</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -35,16 +35,16 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
-    <t xml:space="preserve">Kode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mata Kuliah</t>
+    <t xml:space="preserve">Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course Title</t>
   </si>
   <si>
     <t xml:space="preserve">SKS</t>
   </si>
   <si>
-    <t xml:space="preserve">Angka Mutu</t>
+    <t xml:space="preserve">Score</t>
   </si>
   <si>
     <t xml:space="preserve">Grade</t>
@@ -391,7 +391,7 @@
   <dimension ref="A2:AMJ37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -532,7 +532,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
         <v>2</v>
       </c>
